--- a/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'3.3_1-1'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'3.3_1-2'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1186,6 +1186,172 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1198,22 +1364,6 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1253,164 +1403,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1421,8 +1424,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,33 +1459,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2184,14 +2184,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3090" name="図 4"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2212,19 +2212,16 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="200025" y="1543050"/>
-          <a:ext cx="5657850" cy="3248025"/>
+          <a:ext cx="5953125" cy="3286125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -2538,202 +2535,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="44" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="38" t="s">
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="43"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="109"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="38" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="46">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="95">
         <v>39961</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="44" t="s">
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45" t="s">
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="44" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="44" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="44" t="s">
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2814,83 +2811,83 @@
       <c r="A9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="64" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="64" t="s">
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="65"/>
-      <c r="U9" s="64" t="s">
+      <c r="T9" s="82"/>
+      <c r="U9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="64" t="s">
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="64" t="s">
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="64" t="s">
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="64" t="s">
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="64" t="s">
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="64" t="s">
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="64" t="s">
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="64" t="s">
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="67" t="s">
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="69"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="48"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -2912,66 +2909,66 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="76" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="70" t="s">
+      <c r="T10" s="77"/>
+      <c r="U10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="70" t="s">
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="76" t="s">
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="76" t="s">
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="76">
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="56">
         <v>8</v>
       </c>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="76" t="s">
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="76" t="s">
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="76" t="s">
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="107" t="s">
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AY10" s="108"/>
-      <c r="AZ10" s="109"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="45"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -2993,66 +2990,66 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="79" t="s">
+      <c r="O11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="73" t="s">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="79" t="s">
+      <c r="T11" s="42"/>
+      <c r="U11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="79" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="73" t="s">
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="73" t="s">
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="73">
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="41">
         <v>10</v>
       </c>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="73" t="s">
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="73" t="s">
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="73" t="s">
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="90" t="s">
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="92"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="55"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1">
       <c r="A12" s="33">
@@ -3074,68 +3071,68 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="73" t="s">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="79" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="79" t="s">
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="76" t="s">
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="73" t="s">
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="73">
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="41">
         <v>20</v>
       </c>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="73" t="s">
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="82" t="s">
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="73" t="s">
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="74"/>
-      <c r="AV12" s="73" t="s">
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AW12" s="74"/>
-      <c r="AX12" s="90" t="s">
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="92"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="55"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1">
       <c r="A13" s="33">
@@ -3157,68 +3154,68 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="79" t="s">
+      <c r="O13" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="73" t="s">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="79" t="s">
+      <c r="T13" s="42"/>
+      <c r="U13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="79" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="73" t="s">
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="73" t="s">
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="73" t="s">
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="73" t="s">
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="82" t="s">
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="73" t="s">
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="74"/>
-      <c r="AV13" s="73" t="s">
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AW13" s="74"/>
-      <c r="AX13" s="90" t="s">
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="92"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="55"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -3238,44 +3235,44 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="74"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="92"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="55"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -3295,44 +3292,44 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="83"/>
-      <c r="AP15" s="83"/>
-      <c r="AQ15" s="83"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="75"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="55"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -3352,44 +3349,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="74"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="74"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="92"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="55"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -3409,44 +3406,44 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="74"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="74"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="92"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="52"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="55"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -3466,44 +3463,44 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="92"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="55"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -3523,44 +3520,44 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="83"/>
-      <c r="AO19" s="83"/>
-      <c r="AP19" s="83"/>
-      <c r="AQ19" s="83"/>
-      <c r="AR19" s="83"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="74"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="74"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="92"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="41"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="55"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -3580,44 +3577,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="83"/>
-      <c r="AO20" s="83"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="83"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="74"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="74"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="92"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="55"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -3637,44 +3634,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="74"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="92"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="55"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -3694,44 +3691,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="83"/>
-      <c r="AO22" s="83"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="74"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="74"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="92"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="41"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="55"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -3751,44 +3748,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="83"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="84"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="74"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="74"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="92"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="55"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -3808,44 +3805,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="80"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="83"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="74"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="74"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="92"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="55"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -3865,44 +3862,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="83"/>
-      <c r="AO25" s="83"/>
-      <c r="AP25" s="83"/>
-      <c r="AQ25" s="83"/>
-      <c r="AR25" s="83"/>
-      <c r="AS25" s="84"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="74"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="74"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="92"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="55"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -3922,44 +3919,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="84"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="92"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="55"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -3979,44 +3976,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="84"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="74"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="92"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="55"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -4036,44 +4033,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="84"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="92"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="55"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -4093,44 +4090,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="74"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="74"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="92"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="41"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="55"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -4150,44 +4147,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="82"/>
-      <c r="AN30" s="83"/>
-      <c r="AO30" s="83"/>
-      <c r="AP30" s="83"/>
-      <c r="AQ30" s="83"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="84"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="74"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="74"/>
-      <c r="AX30" s="90"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="92"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="41"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="55"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -4207,44 +4204,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="83"/>
-      <c r="AO31" s="83"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="83"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="84"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="74"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="74"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="92"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="55"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -4264,44 +4261,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="80"/>
-      <c r="AC32" s="80"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="82"/>
-      <c r="AN32" s="83"/>
-      <c r="AO32" s="83"/>
-      <c r="AP32" s="83"/>
-      <c r="AQ32" s="83"/>
-      <c r="AR32" s="83"/>
-      <c r="AS32" s="84"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="74"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="92"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="55"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -4321,44 +4318,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="80"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="74"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="82"/>
-      <c r="AN33" s="83"/>
-      <c r="AO33" s="83"/>
-      <c r="AP33" s="83"/>
-      <c r="AQ33" s="83"/>
-      <c r="AR33" s="83"/>
-      <c r="AS33" s="84"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="74"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="90"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="55"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -4378,44 +4375,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="82"/>
-      <c r="AN34" s="83"/>
-      <c r="AO34" s="83"/>
-      <c r="AP34" s="83"/>
-      <c r="AQ34" s="83"/>
-      <c r="AR34" s="83"/>
-      <c r="AS34" s="84"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="74"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="41"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="41"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="55"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -4435,44 +4432,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="82"/>
-      <c r="AN35" s="83"/>
-      <c r="AO35" s="83"/>
-      <c r="AP35" s="83"/>
-      <c r="AQ35" s="83"/>
-      <c r="AR35" s="83"/>
-      <c r="AS35" s="84"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="74"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="92"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="55"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -4492,47 +4489,382 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="98"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="101"/>
-      <c r="AG36" s="102"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="100"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="100"/>
-      <c r="AM36" s="104"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="106"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="101"/>
-      <c r="AV36" s="99"/>
-      <c r="AW36" s="101"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="95"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="63"/>
+      <c r="AO36" s="63"/>
+      <c r="AP36" s="63"/>
+      <c r="AQ36" s="63"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="359">
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
     <mergeCell ref="O33:R33"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="U33:Y33"/>
@@ -4557,341 +4889,6 @@
     <mergeCell ref="AX25:AZ25"/>
     <mergeCell ref="AX24:AZ24"/>
     <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4908,208 +4905,208 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="44" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="38" t="s">
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="43"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="109"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="38" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="46">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="95">
         <v>41534</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="44" t="s">
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45" t="s">
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="44" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="44" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="44" t="s">
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5131,14 +5128,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="35" t="s">
         <v>45</v>
       </c>
@@ -6810,11 +6807,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
@@ -6827,12 +6825,11 @@
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6855,202 +6852,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="44" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="38" t="s">
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="43"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="109"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="38" t="s">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="46">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="95">
         <v>41534</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="44" t="s">
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45" t="s">
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="44" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="44" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="44" t="s">
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -7131,83 +7128,83 @@
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="64" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="64" t="s">
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="65"/>
-      <c r="U9" s="64" t="s">
+      <c r="T9" s="82"/>
+      <c r="U9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="64" t="s">
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="64" t="s">
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="64" t="s">
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="64" t="s">
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="64" t="s">
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="64" t="s">
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="64" t="s">
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="64" t="s">
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="67" t="s">
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="69"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="48"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -7229,62 +7226,62 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="120" t="s">
+      <c r="O10" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="76" t="s">
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="76" t="s">
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="76" t="s">
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="76" t="s">
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="76" t="s">
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="76" t="s">
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="76" t="s">
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="114" t="s">
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="AY10" s="115"/>
-      <c r="AZ10" s="116"/>
+      <c r="AY10" s="124"/>
+      <c r="AZ10" s="125"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -7306,62 +7303,62 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="117" t="s">
+      <c r="O11" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="73" t="s">
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="73" t="s">
+      <c r="T11" s="42"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="73" t="s">
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="73" t="s">
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="73" t="s">
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="73" t="s">
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU11" s="75"/>
-      <c r="AV11" s="73" t="s">
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW11" s="75"/>
-      <c r="AX11" s="90" t="s">
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="92"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="55"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="33">
@@ -7383,62 +7380,62 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="117" t="s">
+      <c r="O12" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="73" t="s">
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="73" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="73" t="s">
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="73" t="s">
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="73" t="s">
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="73" t="s">
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="73" t="s">
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="90" t="s">
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="92"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="55"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="33">
@@ -7460,62 +7457,62 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="117" t="s">
+      <c r="O13" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="73" t="s">
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="73" t="s">
+      <c r="T13" s="42"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="73" t="s">
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="73" t="s">
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="73" t="s">
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="73" t="s">
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU13" s="75"/>
-      <c r="AV13" s="73" t="s">
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="90" t="s">
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="92"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="55"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -7537,62 +7534,62 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="117" t="s">
+      <c r="O14" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="73" t="s">
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="73" t="s">
+      <c r="T14" s="42"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="73" t="s">
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="73" t="s">
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="73" t="s">
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="73" t="s">
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="73" t="s">
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="90" t="s">
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="92"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="55"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -7614,62 +7611,62 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="117" t="s">
+      <c r="O15" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="73" t="s">
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T15" s="75"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="73" t="s">
+      <c r="T15" s="42"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="73" t="s">
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="73" t="s">
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="73" t="s">
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="83"/>
-      <c r="AP15" s="83"/>
-      <c r="AQ15" s="83"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="73" t="s">
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU15" s="75"/>
-      <c r="AV15" s="73" t="s">
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="90" t="s">
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="55"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -7691,62 +7688,62 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="117" t="s">
+      <c r="O16" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="73" t="s">
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="73" t="s">
+      <c r="T16" s="42"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="73" t="s">
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="73" t="s">
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="73" t="s">
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="73" t="s">
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="73" t="s">
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="90" t="s">
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="92"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="55"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -7768,62 +7765,62 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="117" t="s">
+      <c r="O17" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="73" t="s">
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T17" s="75"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="73" t="s">
+      <c r="T17" s="42"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="73" t="s">
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="73" t="s">
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="73" t="s">
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="73" t="s">
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU17" s="75"/>
-      <c r="AV17" s="73" t="s">
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="90" t="s">
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="92"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="55"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -7845,62 +7842,62 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="117" t="s">
+      <c r="O18" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="73" t="s">
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="75"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="73" t="s">
+      <c r="T18" s="42"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="73" t="s">
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="73" t="s">
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="73" t="s">
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="73" t="s">
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="73" t="s">
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="90" t="s">
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="92"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="55"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -7922,62 +7919,62 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="73" t="s">
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="75"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="73" t="s">
+      <c r="T19" s="42"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="73" t="s">
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="73" t="s">
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="73" t="s">
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="83"/>
-      <c r="AO19" s="83"/>
-      <c r="AP19" s="83"/>
-      <c r="AQ19" s="83"/>
-      <c r="AR19" s="83"/>
-      <c r="AS19" s="84"/>
-      <c r="AT19" s="73" t="s">
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AU19" s="75"/>
-      <c r="AV19" s="73" t="s">
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AW19" s="75"/>
-      <c r="AX19" s="90" t="s">
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="92"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="55"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -7997,44 +7994,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="83"/>
-      <c r="AO20" s="83"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="83"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="74"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="74"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="92"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="50"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="50"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="55"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -8054,44 +8051,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="74"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="92"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="55"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -8111,44 +8108,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="83"/>
-      <c r="AO22" s="83"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="74"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="74"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="92"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="41"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="55"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -8168,44 +8165,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="83"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="84"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="74"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="74"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="92"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="55"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -8225,44 +8222,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="80"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="83"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="74"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="74"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="92"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="55"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -8282,44 +8279,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="83"/>
-      <c r="AO25" s="83"/>
-      <c r="AP25" s="83"/>
-      <c r="AQ25" s="83"/>
-      <c r="AR25" s="83"/>
-      <c r="AS25" s="84"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="74"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="74"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="92"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="55"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -8339,44 +8336,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="84"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="92"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="55"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -8396,44 +8393,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="84"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="74"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="92"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="55"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -8453,44 +8450,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="84"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="92"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="55"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -8510,44 +8507,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="74"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="74"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="92"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="41"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="55"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -8567,44 +8564,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="82"/>
-      <c r="AN30" s="83"/>
-      <c r="AO30" s="83"/>
-      <c r="AP30" s="83"/>
-      <c r="AQ30" s="83"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="84"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="74"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="74"/>
-      <c r="AX30" s="90"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="92"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="41"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="55"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -8624,44 +8621,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="83"/>
-      <c r="AO31" s="83"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="83"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="84"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="74"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="74"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="92"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="55"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -8681,44 +8678,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="80"/>
-      <c r="AC32" s="80"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="82"/>
-      <c r="AN32" s="83"/>
-      <c r="AO32" s="83"/>
-      <c r="AP32" s="83"/>
-      <c r="AQ32" s="83"/>
-      <c r="AR32" s="83"/>
-      <c r="AS32" s="84"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="74"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="92"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="50"/>
+      <c r="AR32" s="50"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="55"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -8738,44 +8735,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="80"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="74"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="82"/>
-      <c r="AN33" s="83"/>
-      <c r="AO33" s="83"/>
-      <c r="AP33" s="83"/>
-      <c r="AQ33" s="83"/>
-      <c r="AR33" s="83"/>
-      <c r="AS33" s="84"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="74"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="90"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="50"/>
+      <c r="AP33" s="50"/>
+      <c r="AQ33" s="50"/>
+      <c r="AR33" s="50"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="55"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -8795,44 +8792,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="82"/>
-      <c r="AN34" s="83"/>
-      <c r="AO34" s="83"/>
-      <c r="AP34" s="83"/>
-      <c r="AQ34" s="83"/>
-      <c r="AR34" s="83"/>
-      <c r="AS34" s="84"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="74"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="41"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="41"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="55"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -8852,44 +8849,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="82"/>
-      <c r="AN35" s="83"/>
-      <c r="AO35" s="83"/>
-      <c r="AP35" s="83"/>
-      <c r="AQ35" s="83"/>
-      <c r="AR35" s="83"/>
-      <c r="AS35" s="84"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="74"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="92"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="55"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -8909,73 +8906,356 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="98"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="101"/>
-      <c r="AG36" s="102"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="100"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="100"/>
-      <c r="AM36" s="104"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="106"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="101"/>
-      <c r="AV36" s="99"/>
-      <c r="AW36" s="101"/>
-      <c r="AX36" s="93"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="95"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="63"/>
+      <c r="AO36" s="63"/>
+      <c r="AP36" s="63"/>
+      <c r="AQ36" s="63"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="AK9:AL9"/>
@@ -9000,315 +9280,32 @@
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AS11"/>
     <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3.3_0" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -684,6 +684,80 @@
   <si>
     <t>メニュー</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザマスタに登録されているログイン</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの権限により、使用できる機能を</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制限する。</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタメンテ使用不可ユーザの場合は</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタメンテナンス関連のボタンを</t>
+    <rPh sb="9" eb="11">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非表示とする。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ権限により使用不可</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1071,7 +1145,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,142 +1260,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1336,8 +1330,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,81 +1366,146 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1451,14 +1534,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2535,202 +2630,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="87" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="84" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="92" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="109"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="60"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="88" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="88" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="92" t="s">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="87" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="95">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43">
         <v>39961</v>
       </c>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="87" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="91" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="91"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="87" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="87" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="87" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="91" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2811,83 +2906,83 @@
       <c r="A9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="81" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="81" t="s">
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="81" t="s">
+      <c r="T9" s="66"/>
+      <c r="U9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="81" t="s">
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="81" t="s">
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="81" t="s">
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="81" t="s">
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="81" t="s">
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="81" t="s">
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="81" t="s">
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="81" t="s">
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="46" t="s">
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="48"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="63"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -2909,66 +3004,66 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="56" t="s">
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="78" t="s">
+      <c r="T10" s="74"/>
+      <c r="U10" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="78" t="s">
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="56" t="s">
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="56" t="s">
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="56">
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="72">
         <v>8</v>
       </c>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="56" t="s">
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="56" t="s">
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="80"/>
+      <c r="AP10" s="80"/>
+      <c r="AQ10" s="80"/>
+      <c r="AR10" s="80"/>
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="56" t="s">
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="43" t="s">
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="45"/>
+      <c r="AY10" s="108"/>
+      <c r="AZ10" s="109"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -2990,66 +3085,66 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41" t="s">
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="T11" s="42"/>
-      <c r="U11" s="38" t="s">
+      <c r="T11" s="71"/>
+      <c r="U11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="38" t="s">
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="41" t="s">
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="41" t="s">
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="41">
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="70">
         <v>10</v>
       </c>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="41" t="s">
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="41" t="s">
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="41" t="s">
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="53" t="s">
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="55"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="92"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1">
       <c r="A12" s="33">
@@ -3071,68 +3166,68 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="41" t="s">
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="38" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="38" t="s">
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="56" t="s">
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="41" t="s">
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="41">
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="70">
         <v>20</v>
       </c>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="41" t="s">
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="49" t="s">
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="41" t="s">
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="41" t="s">
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="53" t="s">
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="55"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="92"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1">
       <c r="A13" s="33">
@@ -3154,68 +3249,68 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41" t="s">
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="42"/>
-      <c r="U13" s="38" t="s">
+      <c r="T13" s="71"/>
+      <c r="U13" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="38" t="s">
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="41" t="s">
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="41" t="s">
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="49" t="s">
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="41" t="s">
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="41" t="s">
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="53" t="s">
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="55"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="92"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -3235,44 +3330,44 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="55"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="92"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -3292,44 +3387,44 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="55"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="92"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -3349,44 +3444,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="55"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="92"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -3406,44 +3501,44 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="55"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="92"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -3463,44 +3558,44 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="55"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="92"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -3520,44 +3615,44 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="55"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="92"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -3577,44 +3672,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="55"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="92"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -3634,44 +3729,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="55"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="92"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -3691,44 +3786,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="55"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="92"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -3748,44 +3843,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="91"/>
+      <c r="AZ23" s="92"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -3805,44 +3900,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="55"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="77"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="92"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -3862,44 +3957,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="55"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="70"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="70"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="92"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -3919,44 +4014,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="50"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="55"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="77"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="92"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -3976,44 +4071,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="50"/>
-      <c r="AP27" s="50"/>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="50"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="55"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="77"/>
+      <c r="AT27" s="70"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="92"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -4033,44 +4128,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="55"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="70"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="92"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -4090,44 +4185,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="55"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="76"/>
+      <c r="AO29" s="76"/>
+      <c r="AP29" s="76"/>
+      <c r="AQ29" s="76"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="92"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -4147,44 +4242,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="55"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="77"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="70"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="92"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -4204,44 +4299,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="55"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="83"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="77"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="78"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="92"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -4261,44 +4356,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="50"/>
-      <c r="AP32" s="50"/>
-      <c r="AQ32" s="50"/>
-      <c r="AR32" s="50"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="55"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="70"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="70"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="76"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="77"/>
+      <c r="AT32" s="70"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="70"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="92"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -4318,44 +4413,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="50"/>
-      <c r="AP33" s="50"/>
-      <c r="AQ33" s="50"/>
-      <c r="AR33" s="50"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="55"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="83"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="70"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="77"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="92"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -4375,44 +4470,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="55"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="76"/>
+      <c r="AO34" s="76"/>
+      <c r="AP34" s="76"/>
+      <c r="AQ34" s="76"/>
+      <c r="AR34" s="76"/>
+      <c r="AS34" s="77"/>
+      <c r="AT34" s="70"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="70"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="90"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="92"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -4432,44 +4527,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="52"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="55"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="89"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
+      <c r="AS35" s="77"/>
+      <c r="AT35" s="70"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="70"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="90"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="92"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -4489,162 +4584,265 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="61"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="63"/>
-      <c r="AO36" s="63"/>
-      <c r="AP36" s="63"/>
-      <c r="AQ36" s="63"/>
-      <c r="AR36" s="63"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="60"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="68"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="97"/>
+      <c r="AM36" s="101"/>
+      <c r="AN36" s="102"/>
+      <c r="AO36" s="102"/>
+      <c r="AP36" s="102"/>
+      <c r="AQ36" s="102"/>
+      <c r="AR36" s="102"/>
+      <c r="AS36" s="103"/>
+      <c r="AT36" s="96"/>
+      <c r="AU36" s="98"/>
+      <c r="AV36" s="96"/>
+      <c r="AW36" s="98"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
     <mergeCell ref="AT19:AU19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="S20:T20"/>
@@ -4669,226 +4867,123 @@
     <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AI18:AJ18"/>
     <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AV10:AW10"/>
     <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4905,208 +5000,208 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="87" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="84" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="92" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="109"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="60"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="88" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="88" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="92" t="s">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="87" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="95">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43">
         <v>41534</v>
       </c>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="87" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="91" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="91"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="87" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="87" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="87" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="91" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5128,14 +5223,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
       <c r="K8" s="35" t="s">
         <v>45</v>
       </c>
@@ -5276,7 +5371,9 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
@@ -5330,7 +5427,9 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="5"/>
+      <c r="AK11" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
@@ -5384,7 +5483,9 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="5"/>
+      <c r="AK12" s="126" t="s">
+        <v>110</v>
+      </c>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
@@ -5492,7 +5593,9 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="5"/>
+      <c r="AK14" s="126" t="s">
+        <v>111</v>
+      </c>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
@@ -5546,7 +5649,9 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="5"/>
+      <c r="AK15" s="126" t="s">
+        <v>112</v>
+      </c>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
@@ -5600,7 +5705,9 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="5"/>
+      <c r="AK16" s="126" t="s">
+        <v>113</v>
+      </c>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
@@ -6807,6 +6914,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
@@ -6823,17 +6937,10 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C3.3-&amp;P</oddFooter>
   </headerFooter>
@@ -6846,208 +6953,208 @@
   <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:R9"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="87" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="84" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="92" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="109"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="60"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="88" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="88" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="92" t="s">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="87" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="95">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43">
         <v>41534</v>
       </c>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="87" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="91" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="91"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="87" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="87" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="87" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="91" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -7128,83 +7235,83 @@
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="81" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="81" t="s">
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="81" t="s">
+      <c r="T9" s="66"/>
+      <c r="U9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="81" t="s">
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="81" t="s">
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="81" t="s">
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="81" t="s">
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="81" t="s">
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="81" t="s">
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="81" t="s">
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="81" t="s">
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="46" t="s">
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="48"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="63"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -7226,62 +7333,62 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="117" t="s">
+      <c r="O10" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="56" t="s">
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="56" t="s">
+      <c r="T10" s="74"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="56" t="s">
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="56" t="s">
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="56" t="s">
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="56" t="s">
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="128"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="128"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="56" t="s">
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="123" t="s">
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="125"/>
+      <c r="AY10" s="115"/>
+      <c r="AZ10" s="116"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -7303,62 +7410,62 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="41" t="s">
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="42"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="41" t="s">
+      <c r="T11" s="71"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="41" t="s">
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="41" t="s">
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="41" t="s">
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="41" t="s">
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="118"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="118"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="41" t="s">
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="53" t="s">
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="55"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="92"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="33">
@@ -7380,62 +7487,62 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="114" t="s">
+      <c r="O12" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="41" t="s">
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="41" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="41" t="s">
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="41" t="s">
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="41" t="s">
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="41" t="s">
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="118"/>
+      <c r="AR12" s="118"/>
+      <c r="AS12" s="119"/>
+      <c r="AT12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="41" t="s">
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="53" t="s">
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="55"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="92"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="33">
@@ -7457,62 +7564,62 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="114" t="s">
+      <c r="O13" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="41" t="s">
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="42"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="41" t="s">
+      <c r="T13" s="71"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="41" t="s">
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="41" t="s">
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="41" t="s">
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="53" t="s">
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="55"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="92"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -7534,62 +7641,62 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="114" t="s">
+      <c r="O14" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="41" t="s">
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T14" s="42"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="41" t="s">
+      <c r="T14" s="71"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="41" t="s">
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="41" t="s">
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="41" t="s">
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="41" t="s">
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="118"/>
+      <c r="AQ14" s="118"/>
+      <c r="AR14" s="118"/>
+      <c r="AS14" s="119"/>
+      <c r="AT14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="41" t="s">
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="53" t="s">
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="55"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="92"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -7611,62 +7718,64 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="114" t="s">
+      <c r="O15" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="41" t="s">
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T15" s="42"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="41" t="s">
+      <c r="T15" s="71"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="41" t="s">
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="41" t="s">
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="41" t="s">
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="119"/>
+      <c r="AT15" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="41" t="s">
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="53" t="s">
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="55"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="92"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -7688,62 +7797,64 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="114" t="s">
+      <c r="O16" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="41" t="s">
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T16" s="42"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="41" t="s">
+      <c r="T16" s="71"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="41" t="s">
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="41" t="s">
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="41" t="s">
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="41" t="s">
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="53" t="s">
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="55"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="92"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -7765,62 +7876,64 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="114" t="s">
+      <c r="O17" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="41" t="s">
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="41" t="s">
+      <c r="T17" s="71"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="41" t="s">
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="41" t="s">
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="41" t="s">
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="119"/>
+      <c r="AT17" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="41" t="s">
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="53" t="s">
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="55"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="92"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -7842,62 +7955,64 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="114" t="s">
+      <c r="O18" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="41" t="s">
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="42"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="41" t="s">
+      <c r="T18" s="71"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="41" t="s">
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="41" t="s">
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="41" t="s">
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="119"/>
+      <c r="AT18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="41" t="s">
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="53" t="s">
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="55"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="92"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -7919,62 +8034,64 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="114" t="s">
+      <c r="O19" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="41" t="s">
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="42"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="41" t="s">
+      <c r="T19" s="71"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="41" t="s">
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="41" t="s">
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="41" t="s">
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="41" t="s">
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="53" t="s">
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="55"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="92"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -7994,44 +8111,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="55"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="119"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="92"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -8051,44 +8168,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="55"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="119"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="92"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -8108,44 +8225,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="55"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="119"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="92"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -8165,44 +8282,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="118"/>
+      <c r="AQ23" s="118"/>
+      <c r="AR23" s="118"/>
+      <c r="AS23" s="119"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="91"/>
+      <c r="AZ23" s="92"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -8222,44 +8339,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="55"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="118"/>
+      <c r="AR24" s="118"/>
+      <c r="AS24" s="119"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="92"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -8279,44 +8396,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="55"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="118"/>
+      <c r="AO25" s="118"/>
+      <c r="AP25" s="118"/>
+      <c r="AQ25" s="118"/>
+      <c r="AR25" s="118"/>
+      <c r="AS25" s="119"/>
+      <c r="AT25" s="70"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="70"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="92"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -8336,44 +8453,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="50"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="55"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="118"/>
+      <c r="AQ26" s="118"/>
+      <c r="AR26" s="118"/>
+      <c r="AS26" s="119"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="92"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -8393,44 +8510,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="50"/>
-      <c r="AP27" s="50"/>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="50"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="55"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="118"/>
+      <c r="AQ27" s="118"/>
+      <c r="AR27" s="118"/>
+      <c r="AS27" s="119"/>
+      <c r="AT27" s="70"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="92"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -8450,44 +8567,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="55"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="118"/>
+      <c r="AO28" s="118"/>
+      <c r="AP28" s="118"/>
+      <c r="AQ28" s="118"/>
+      <c r="AR28" s="118"/>
+      <c r="AS28" s="119"/>
+      <c r="AT28" s="70"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="92"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -8507,44 +8624,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="55"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="118"/>
+      <c r="AQ29" s="118"/>
+      <c r="AR29" s="118"/>
+      <c r="AS29" s="119"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="92"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -8564,44 +8681,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="55"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="118"/>
+      <c r="AO30" s="118"/>
+      <c r="AP30" s="118"/>
+      <c r="AQ30" s="118"/>
+      <c r="AR30" s="118"/>
+      <c r="AS30" s="119"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="70"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="92"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -8621,44 +8738,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="55"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="83"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="118"/>
+      <c r="AO31" s="118"/>
+      <c r="AP31" s="118"/>
+      <c r="AQ31" s="118"/>
+      <c r="AR31" s="118"/>
+      <c r="AS31" s="119"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="78"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="92"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -8678,44 +8795,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="50"/>
-      <c r="AP32" s="50"/>
-      <c r="AQ32" s="50"/>
-      <c r="AR32" s="50"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="55"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="70"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="70"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="118"/>
+      <c r="AP32" s="118"/>
+      <c r="AQ32" s="118"/>
+      <c r="AR32" s="118"/>
+      <c r="AS32" s="119"/>
+      <c r="AT32" s="70"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="70"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="92"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -8735,44 +8852,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="50"/>
-      <c r="AP33" s="50"/>
-      <c r="AQ33" s="50"/>
-      <c r="AR33" s="50"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="55"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="83"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="70"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="118"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="118"/>
+      <c r="AS33" s="119"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="92"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -8792,44 +8909,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="55"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="118"/>
+      <c r="AO34" s="118"/>
+      <c r="AP34" s="118"/>
+      <c r="AQ34" s="118"/>
+      <c r="AR34" s="118"/>
+      <c r="AS34" s="119"/>
+      <c r="AT34" s="70"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="70"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="90"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="92"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -8849,44 +8966,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="52"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="55"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="89"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="117"/>
+      <c r="AN35" s="118"/>
+      <c r="AO35" s="118"/>
+      <c r="AP35" s="118"/>
+      <c r="AQ35" s="118"/>
+      <c r="AR35" s="118"/>
+      <c r="AS35" s="119"/>
+      <c r="AT35" s="70"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="70"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="90"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="92"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -8906,47 +9023,382 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="61"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="63"/>
-      <c r="AO36" s="63"/>
-      <c r="AP36" s="63"/>
-      <c r="AQ36" s="63"/>
-      <c r="AR36" s="63"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="60"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="68"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="97"/>
+      <c r="AM36" s="130"/>
+      <c r="AN36" s="131"/>
+      <c r="AO36" s="131"/>
+      <c r="AP36" s="131"/>
+      <c r="AQ36" s="131"/>
+      <c r="AR36" s="131"/>
+      <c r="AS36" s="132"/>
+      <c r="AT36" s="96"/>
+      <c r="AU36" s="98"/>
+      <c r="AV36" s="96"/>
+      <c r="AW36" s="98"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="359">
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
     <mergeCell ref="AX9:AZ9"/>
     <mergeCell ref="AM33:AS33"/>
     <mergeCell ref="AT33:AU33"/>
@@ -8971,341 +9423,6 @@
     <mergeCell ref="AX18:AZ18"/>
     <mergeCell ref="AX17:AZ17"/>
     <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="124">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -560,77 +560,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>講演会基本情報</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会場手配</t>
-    <rPh sb="0" eb="2">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テハイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>宿泊・交通</t>
-    <rPh sb="0" eb="2">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お弁当</t>
-    <rPh sb="1" eb="3">
-      <t>ベントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>講演会情報</t>
-    <rPh sb="0" eb="3">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事業部マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エリアマスタ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>営業所マスタ</t>
-    <rPh sb="0" eb="3">
-      <t>エイギョウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>施設マスタ</t>
     <rPh sb="0" eb="2">
       <t>シセツ</t>
@@ -660,18 +589,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -758,6 +675,176 @@
       <t>フカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規・講演会基本情報</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規・会場手配</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規・宿泊・交通</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規・お弁当</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索・講演会基本情報</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索・会場手配</t>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索・宿泊・交通</t>
+    <rPh sb="3" eb="5">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索・お弁当</t>
+    <rPh sb="4" eb="6">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取込ログ</t>
+    <rPh sb="0" eb="2">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作ログ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算金額入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAPデータ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会・コストセンター別集計</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者一覧</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -841,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1137,6 +1224,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1145,7 +1276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,6 +1390,180 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,9 +1581,6 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1318,18 +1620,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,153 +1629,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1641,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,52 +1695,55 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2276,17 +2467,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15234</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2306,8 +2497,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="1543050"/>
-          <a:ext cx="5953125" cy="3286125"/>
+          <a:off x="200025" y="1543051"/>
+          <a:ext cx="6616059" cy="2895600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,202 +2821,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="55" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="42" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="60"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="67" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="67" t="s">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="99">
         <v>39961</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="38" t="s">
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="42" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="42" t="s">
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="38" t="s">
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2906,83 +3097,83 @@
       <c r="A9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="64" t="s">
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="64" t="s">
+      <c r="T9" s="83"/>
+      <c r="U9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="64" t="s">
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="64" t="s">
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="64" t="s">
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="64" t="s">
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="64" t="s">
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="64" t="s">
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="64" t="s">
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="64" t="s">
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="61" t="s">
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="47"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -3004,66 +3195,66 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="85" t="s">
+      <c r="O10" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="72" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="85" t="s">
+      <c r="T10" s="81"/>
+      <c r="U10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="85" t="s">
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="72" t="s">
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="72" t="s">
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="72">
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="76">
         <v>8</v>
       </c>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="72" t="s">
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="80"/>
-      <c r="AO10" s="80"/>
-      <c r="AP10" s="80"/>
-      <c r="AQ10" s="80"/>
-      <c r="AR10" s="80"/>
-      <c r="AS10" s="81"/>
-      <c r="AT10" s="72" t="s">
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="72" t="s">
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="107" t="s">
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AY10" s="108"/>
-      <c r="AZ10" s="109"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="44"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -3085,66 +3276,66 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="82" t="s">
+      <c r="O11" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="70" t="s">
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="T11" s="71"/>
-      <c r="U11" s="82" t="s">
+      <c r="T11" s="56"/>
+      <c r="U11" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="82" t="s">
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="70" t="s">
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="70" t="s">
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="70">
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="51">
         <v>10</v>
       </c>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="70" t="s">
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="70" t="s">
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="70" t="s">
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="90" t="s">
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="92"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="55"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1">
       <c r="A12" s="33">
@@ -3166,68 +3357,68 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="82" t="s">
+      <c r="O12" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="70" t="s">
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="71"/>
-      <c r="U12" s="82" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="82" t="s">
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="72" t="s">
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="70" t="s">
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="70">
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="51">
         <v>20</v>
       </c>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="70" t="s">
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="75" t="s">
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="70" t="s">
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="70" t="s">
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="90" t="s">
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="92"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="55"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1">
       <c r="A13" s="33">
@@ -3249,68 +3440,68 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="82" t="s">
+      <c r="O13" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="70" t="s">
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="71"/>
-      <c r="U13" s="82" t="s">
+      <c r="T13" s="56"/>
+      <c r="U13" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="82" t="s">
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="70" t="s">
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="70" t="s">
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="70" t="s">
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="70" t="s">
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="75" t="s">
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="70" t="s">
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="70" t="s">
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="90" t="s">
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="92"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="55"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
@@ -3330,44 +3521,44 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="92"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="55"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
@@ -3387,44 +3578,44 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="55"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
@@ -3444,44 +3635,44 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="92"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="55"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
@@ -3501,44 +3692,44 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="92"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="52"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="55"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -3558,44 +3749,44 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="92"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="55"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -3615,44 +3806,44 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="92"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="55"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
@@ -3672,44 +3863,44 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="92"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="55"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
@@ -3729,44 +3920,44 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="92"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="55"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
@@ -3786,44 +3977,44 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="76"/>
-      <c r="AO22" s="76"/>
-      <c r="AP22" s="76"/>
-      <c r="AQ22" s="76"/>
-      <c r="AR22" s="76"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="92"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="52"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="55"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
@@ -3843,44 +4034,44 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="92"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="52"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="52"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="55"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
@@ -3900,44 +4091,44 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="70"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="92"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="55"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
@@ -3957,44 +4148,44 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="76"/>
-      <c r="AR25" s="76"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="70"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="70"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="92"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="55"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -4014,44 +4205,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="77"/>
-      <c r="AT26" s="70"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="70"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="92"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="55"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -4071,44 +4262,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="70"/>
-      <c r="AL27" s="71"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="76"/>
-      <c r="AP27" s="76"/>
-      <c r="AQ27" s="76"/>
-      <c r="AR27" s="76"/>
-      <c r="AS27" s="77"/>
-      <c r="AT27" s="70"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="70"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="92"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="55"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -4128,44 +4319,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="70"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="70"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="77"/>
-      <c r="AT28" s="70"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="70"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="92"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="55"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -4185,44 +4376,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="76"/>
-      <c r="AP29" s="76"/>
-      <c r="AQ29" s="76"/>
-      <c r="AR29" s="76"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="70"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="92"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="55"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -4242,44 +4433,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="76"/>
-      <c r="AO30" s="76"/>
-      <c r="AP30" s="76"/>
-      <c r="AQ30" s="76"/>
-      <c r="AR30" s="76"/>
-      <c r="AS30" s="77"/>
-      <c r="AT30" s="70"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="70"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="90"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="92"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="55"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -4299,44 +4490,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="70"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="70"/>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="76"/>
-      <c r="AO31" s="76"/>
-      <c r="AP31" s="76"/>
-      <c r="AQ31" s="76"/>
-      <c r="AR31" s="76"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="78"/>
-      <c r="AV31" s="70"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="92"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="55"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -4356,44 +4547,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="70"/>
-      <c r="AL32" s="71"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="76"/>
-      <c r="AO32" s="76"/>
-      <c r="AP32" s="76"/>
-      <c r="AQ32" s="76"/>
-      <c r="AR32" s="76"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="70"/>
-      <c r="AU32" s="78"/>
-      <c r="AV32" s="70"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="92"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="55"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -4413,44 +4604,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="70"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="70"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="70"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="71"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="76"/>
-      <c r="AO33" s="76"/>
-      <c r="AP33" s="76"/>
-      <c r="AQ33" s="76"/>
-      <c r="AR33" s="76"/>
-      <c r="AS33" s="77"/>
-      <c r="AT33" s="70"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="70"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="90"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="50"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="55"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -4470,44 +4661,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="70"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="70"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="76"/>
-      <c r="AO34" s="76"/>
-      <c r="AP34" s="76"/>
-      <c r="AQ34" s="76"/>
-      <c r="AR34" s="76"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="70"/>
-      <c r="AU34" s="78"/>
-      <c r="AV34" s="70"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="55"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -4527,44 +4718,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="70"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="71"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="76"/>
-      <c r="AO35" s="76"/>
-      <c r="AP35" s="76"/>
-      <c r="AQ35" s="76"/>
-      <c r="AR35" s="76"/>
-      <c r="AS35" s="77"/>
-      <c r="AT35" s="70"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="70"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="92"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="50"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="55"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -4584,265 +4775,164 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="102"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="96"/>
-      <c r="AU36" s="98"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="98"/>
-      <c r="AX36" s="104"/>
-      <c r="AY36" s="105"/>
-      <c r="AZ36" s="106"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="59"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="59"/>
+      <c r="AW36" s="64"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="AT19:AU19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="S20:T20"/>
@@ -4867,123 +4957,224 @@
     <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AI18:AJ18"/>
     <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5000,208 +5191,208 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="AM3" sqref="AM3:AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="55" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="42" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="60"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="67" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="67" t="s">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43">
-        <v>41534</v>
-      </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="99">
+        <v>41536</v>
+      </c>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="38" t="s">
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="42" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="42" t="s">
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="38" t="s">
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5223,14 +5414,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
+      <c r="E8" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
       <c r="K8" s="35" t="s">
         <v>45</v>
       </c>
@@ -5372,7 +5563,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -5428,7 +5619,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -5483,8 +5674,8 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="126" t="s">
-        <v>110</v>
+      <c r="AK12" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
@@ -5593,8 +5784,8 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="126" t="s">
-        <v>111</v>
+      <c r="AK14" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
@@ -5649,8 +5840,8 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="126" t="s">
-        <v>112</v>
+      <c r="AK15" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
@@ -5705,8 +5896,8 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="126" t="s">
-        <v>113</v>
+      <c r="AK16" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
@@ -6914,13 +7105,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
@@ -6937,6 +7121,13 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6953,208 +7144,208 @@
   <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="AM3" sqref="AM3:AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="55" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="42" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="60"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="67" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="67" t="s">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43">
-        <v>41534</v>
-      </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="99">
+        <v>41536</v>
+      </c>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="38" t="s">
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="42" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="42" t="s">
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="38" t="s">
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -7178,7 +7369,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -7192,7 +7383,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="18"/>
       <c r="P8" s="19" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
@@ -7235,83 +7426,83 @@
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="64" t="s">
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="64" t="s">
+      <c r="T9" s="83"/>
+      <c r="U9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="64" t="s">
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="64" t="s">
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="64" t="s">
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="64" t="s">
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="64" t="s">
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="64" t="s">
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="64" t="s">
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="64" t="s">
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="61" t="s">
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="47"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="32">
@@ -7319,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7333,42 +7524,42 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="72" t="s">
+      <c r="O10" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="72" t="s">
+      <c r="T10" s="81"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL10" s="74"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL10" s="81"/>
       <c r="AM10" s="127"/>
       <c r="AN10" s="128"/>
       <c r="AO10" s="128"/>
@@ -7376,19 +7567,19 @@
       <c r="AQ10" s="128"/>
       <c r="AR10" s="128"/>
       <c r="AS10" s="129"/>
-      <c r="AT10" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="114" t="s">
+      <c r="AT10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="AY10" s="115"/>
-      <c r="AZ10" s="116"/>
+      <c r="AY10" s="134"/>
+      <c r="AZ10" s="135"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="33">
@@ -7396,7 +7587,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -7410,62 +7601,62 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="70" t="s">
+      <c r="O11" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="71"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="70" t="s">
+      <c r="T11" s="56"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
-      <c r="AQ11" s="118"/>
-      <c r="AR11" s="118"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="90" t="s">
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="119"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="92"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="55"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="33">
@@ -7473,7 +7664,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7487,453 +7678,447 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="70" t="s">
+      <c r="O12" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="71"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="70" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
-      <c r="AQ12" s="118"/>
-      <c r="AR12" s="118"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="92"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="119"/>
+      <c r="AO12" s="119"/>
+      <c r="AP12" s="119"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="55"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="33">
+      <c r="A13" s="136">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="70" t="s">
+      <c r="B13" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="71"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="70" t="s">
+      <c r="T13" s="144"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="92"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL13" s="144"/>
+      <c r="AM13" s="140"/>
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="141"/>
+      <c r="AS13" s="142"/>
+      <c r="AT13" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU13" s="144"/>
+      <c r="AV13" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW13" s="144"/>
+      <c r="AX13" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY13" s="149"/>
+      <c r="AZ13" s="150"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="71"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="70" t="s">
+      <c r="B14" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
-      <c r="AQ14" s="118"/>
-      <c r="AR14" s="118"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="92"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
+      <c r="AQ14" s="151"/>
+      <c r="AR14" s="151"/>
+      <c r="AS14" s="152"/>
+      <c r="AT14" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="55"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="71"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
+      <c r="B15" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="56"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="119"/>
+      <c r="AP15" s="119"/>
+      <c r="AQ15" s="119"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="55"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" s="71"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="92"/>
+      <c r="B16" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="119"/>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="55"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="71"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="92"/>
+      <c r="B17" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="119"/>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="119"/>
+      <c r="AR17" s="119"/>
+      <c r="AS17" s="120"/>
+      <c r="AT17" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="55"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="33">
@@ -7941,7 +8126,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -7955,64 +8140,64 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="70" t="s">
+      <c r="O18" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="71"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="119"/>
-      <c r="AT18" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="92"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="119"/>
+      <c r="AP18" s="119"/>
+      <c r="AQ18" s="119"/>
+      <c r="AR18" s="119"/>
+      <c r="AS18" s="120"/>
+      <c r="AT18" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="55"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="33">
@@ -8020,7 +8205,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -8034,71 +8219,73 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="70" t="s">
+      <c r="O19" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="71"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="119"/>
-      <c r="AT19" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="92"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="119"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="120"/>
+      <c r="AT19" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="55"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -8111,51 +8298,73 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="119"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="92"/>
+      <c r="O20" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="56"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="119"/>
+      <c r="AR20" s="119"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="55"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -8168,51 +8377,73 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="119"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="92"/>
+      <c r="O21" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="56"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="119"/>
+      <c r="AP21" s="119"/>
+      <c r="AQ21" s="119"/>
+      <c r="AR21" s="119"/>
+      <c r="AS21" s="120"/>
+      <c r="AT21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="55"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -8225,51 +8456,71 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="119"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="92"/>
+      <c r="O22" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" s="56"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="119"/>
+      <c r="AP22" s="119"/>
+      <c r="AQ22" s="119"/>
+      <c r="AR22" s="119"/>
+      <c r="AS22" s="120"/>
+      <c r="AT22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="55"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -8282,51 +8533,71 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
-      <c r="AQ23" s="118"/>
-      <c r="AR23" s="118"/>
-      <c r="AS23" s="119"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="92"/>
+      <c r="O23" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" s="56"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="119"/>
+      <c r="AO23" s="119"/>
+      <c r="AP23" s="119"/>
+      <c r="AQ23" s="119"/>
+      <c r="AR23" s="119"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="55"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -8339,51 +8610,71 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="118"/>
-      <c r="AQ24" s="118"/>
-      <c r="AR24" s="118"/>
-      <c r="AS24" s="119"/>
-      <c r="AT24" s="70"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="92"/>
+      <c r="O24" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" s="56"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="119"/>
+      <c r="AO24" s="119"/>
+      <c r="AP24" s="119"/>
+      <c r="AQ24" s="119"/>
+      <c r="AR24" s="119"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="55"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -8396,44 +8687,62 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
-      <c r="AQ25" s="118"/>
-      <c r="AR25" s="118"/>
-      <c r="AS25" s="119"/>
-      <c r="AT25" s="70"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="70"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="92"/>
+      <c r="O25" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="56"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="118"/>
+      <c r="AN25" s="119"/>
+      <c r="AO25" s="119"/>
+      <c r="AP25" s="119"/>
+      <c r="AQ25" s="119"/>
+      <c r="AR25" s="119"/>
+      <c r="AS25" s="120"/>
+      <c r="AT25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="55"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="33">
@@ -8453,44 +8762,44 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
-      <c r="AQ26" s="118"/>
-      <c r="AR26" s="118"/>
-      <c r="AS26" s="119"/>
-      <c r="AT26" s="70"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="70"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="92"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="119"/>
+      <c r="AO26" s="119"/>
+      <c r="AP26" s="119"/>
+      <c r="AQ26" s="119"/>
+      <c r="AR26" s="119"/>
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="55"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="33">
@@ -8510,44 +8819,44 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="70"/>
-      <c r="AL27" s="71"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
-      <c r="AQ27" s="118"/>
-      <c r="AR27" s="118"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="70"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="70"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="92"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="119"/>
+      <c r="AO27" s="119"/>
+      <c r="AP27" s="119"/>
+      <c r="AQ27" s="119"/>
+      <c r="AR27" s="119"/>
+      <c r="AS27" s="120"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="55"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="33">
@@ -8567,44 +8876,44 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="70"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="70"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
-      <c r="AQ28" s="118"/>
-      <c r="AR28" s="118"/>
-      <c r="AS28" s="119"/>
-      <c r="AT28" s="70"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="70"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="92"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="119"/>
+      <c r="AO28" s="119"/>
+      <c r="AP28" s="119"/>
+      <c r="AQ28" s="119"/>
+      <c r="AR28" s="119"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="55"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="33">
@@ -8624,44 +8933,44 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
-      <c r="AQ29" s="118"/>
-      <c r="AR29" s="118"/>
-      <c r="AS29" s="119"/>
-      <c r="AT29" s="70"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="92"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="118"/>
+      <c r="AN29" s="119"/>
+      <c r="AO29" s="119"/>
+      <c r="AP29" s="119"/>
+      <c r="AQ29" s="119"/>
+      <c r="AR29" s="119"/>
+      <c r="AS29" s="120"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="55"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="33">
@@ -8681,44 +8990,44 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="118"/>
-      <c r="AQ30" s="118"/>
-      <c r="AR30" s="118"/>
-      <c r="AS30" s="119"/>
-      <c r="AT30" s="70"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="70"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="90"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="92"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="118"/>
+      <c r="AN30" s="119"/>
+      <c r="AO30" s="119"/>
+      <c r="AP30" s="119"/>
+      <c r="AQ30" s="119"/>
+      <c r="AR30" s="119"/>
+      <c r="AS30" s="120"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="55"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="33">
@@ -8738,44 +9047,44 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="70"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="70"/>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
-      <c r="AQ31" s="118"/>
-      <c r="AR31" s="118"/>
-      <c r="AS31" s="119"/>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="78"/>
-      <c r="AV31" s="70"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="92"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="118"/>
+      <c r="AN31" s="119"/>
+      <c r="AO31" s="119"/>
+      <c r="AP31" s="119"/>
+      <c r="AQ31" s="119"/>
+      <c r="AR31" s="119"/>
+      <c r="AS31" s="120"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="55"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="33">
@@ -8795,44 +9104,44 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="70"/>
-      <c r="AL32" s="71"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
-      <c r="AQ32" s="118"/>
-      <c r="AR32" s="118"/>
-      <c r="AS32" s="119"/>
-      <c r="AT32" s="70"/>
-      <c r="AU32" s="78"/>
-      <c r="AV32" s="70"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="92"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="119"/>
+      <c r="AO32" s="119"/>
+      <c r="AP32" s="119"/>
+      <c r="AQ32" s="119"/>
+      <c r="AR32" s="119"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="55"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="33">
@@ -8852,44 +9161,44 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="70"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="70"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="70"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="71"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
-      <c r="AQ33" s="118"/>
-      <c r="AR33" s="118"/>
-      <c r="AS33" s="119"/>
-      <c r="AT33" s="70"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="70"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="90"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="119"/>
+      <c r="AP33" s="119"/>
+      <c r="AQ33" s="119"/>
+      <c r="AR33" s="119"/>
+      <c r="AS33" s="120"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="55"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="33">
@@ -8909,44 +9218,44 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="70"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="70"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="118"/>
-      <c r="AQ34" s="118"/>
-      <c r="AR34" s="118"/>
-      <c r="AS34" s="119"/>
-      <c r="AT34" s="70"/>
-      <c r="AU34" s="78"/>
-      <c r="AV34" s="70"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="118"/>
+      <c r="AN34" s="119"/>
+      <c r="AO34" s="119"/>
+      <c r="AP34" s="119"/>
+      <c r="AQ34" s="119"/>
+      <c r="AR34" s="119"/>
+      <c r="AS34" s="120"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="55"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="33">
@@ -8966,44 +9275,44 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="70"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="71"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
-      <c r="AQ35" s="118"/>
-      <c r="AR35" s="118"/>
-      <c r="AS35" s="119"/>
-      <c r="AT35" s="70"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="70"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="92"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="118"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="119"/>
+      <c r="AS35" s="120"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="53"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="55"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="34">
@@ -9023,30 +9332,30 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
-      <c r="AC36" s="94"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="97"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="60"/>
       <c r="AM36" s="130"/>
       <c r="AN36" s="131"/>
       <c r="AO36" s="131"/>
@@ -9054,42 +9363,325 @@
       <c r="AQ36" s="131"/>
       <c r="AR36" s="131"/>
       <c r="AS36" s="132"/>
-      <c r="AT36" s="96"/>
-      <c r="AU36" s="98"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="98"/>
-      <c r="AX36" s="104"/>
-      <c r="AY36" s="105"/>
-      <c r="AZ36" s="106"/>
+      <c r="AT36" s="59"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="59"/>
+      <c r="AW36" s="64"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="AK9:AL9"/>
@@ -9114,315 +9706,32 @@
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AS11"/>
     <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(02_メインメニュー).xlsx
@@ -772,20 +772,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取込ログ</t>
-    <rPh sb="0" eb="2">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>操作ログ</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>精算金額入力</t>
     <rPh sb="0" eb="2">
       <t>セイサン</t>
@@ -845,13 +831,33 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>送受信ログ照会</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作ログ照会</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1403,143 +1409,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,8 +1491,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,69 +1527,125 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1650,6 +1668,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1667,84 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2467,17 +2473,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>15234</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>10287</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="3" name="図 2" descr="C:\Work\TOPTOUR\Bayer\画面レイアウトGIF\Menu.gif"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2490,25 +2496,19 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="1543051"/>
-          <a:ext cx="6616059" cy="2895600"/>
+          <a:off x="200025" y="1543050"/>
+          <a:ext cx="6611112" cy="4293108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -2818,207 +2818,207 @@
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="88" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="96" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="113"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="92" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="88" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="92" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="96" t="s">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="91" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="99">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="51">
         <v>39961</v>
       </c>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="91" t="s">
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="95" t="s">
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="91" t="s">
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="91" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="91" t="s">
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="95" t="s">
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95"/>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3026,12 +3026,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -3093,89 +3093,89 @@
       <c r="AY8" s="22"/>
       <c r="AZ8" s="23"/>
     </row>
-    <row r="9" spans="1:52" ht="24.95" customHeight="1">
+    <row r="9" spans="1:52" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="82" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="82" t="s">
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="82" t="s">
+      <c r="T9" s="74"/>
+      <c r="U9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="82" t="s">
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="82" t="s">
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="82" t="s">
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="82" t="s">
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="82" t="s">
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="82" t="s">
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="82" t="s">
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="82" t="s">
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="45" t="s">
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="47"/>
-    </row>
-    <row r="10" spans="1:52">
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="71"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
         <f t="shared" ref="A10:A36" si="0">ROW()-9</f>
         <v>1</v>
@@ -3195,68 +3195,68 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="76" t="s">
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="81"/>
-      <c r="U10" s="78" t="s">
+      <c r="T10" s="88"/>
+      <c r="U10" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="78" t="s">
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="76" t="s">
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="76" t="s">
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="76">
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="86">
         <v>8</v>
       </c>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="76" t="s">
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="81"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="76" t="s">
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="76" t="s">
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="42" t="s">
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="AY10" s="43"/>
-      <c r="AZ10" s="44"/>
-    </row>
-    <row r="11" spans="1:52">
+      <c r="AY10" s="116"/>
+      <c r="AZ10" s="117"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3276,68 +3276,68 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="73" t="s">
+      <c r="O11" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="51" t="s">
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="T11" s="56"/>
-      <c r="U11" s="73" t="s">
+      <c r="T11" s="92"/>
+      <c r="U11" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="73" t="s">
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="51" t="s">
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="51" t="s">
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="51">
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="81">
         <v>10</v>
       </c>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="51" t="s">
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="51" t="s">
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="80"/>
+      <c r="AT11" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="51" t="s">
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="53" t="s">
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="55"/>
-    </row>
-    <row r="12" spans="1:52" ht="24.75" customHeight="1">
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="100"/>
+    </row>
+    <row r="12" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3357,70 +3357,70 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="73" t="s">
+      <c r="O12" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="51" t="s">
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="56"/>
-      <c r="U12" s="73" t="s">
+      <c r="T12" s="92"/>
+      <c r="U12" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="73" t="s">
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="76" t="s">
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="51" t="s">
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="51">
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="81">
         <v>20</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="51" t="s">
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="48" t="s">
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="51" t="s">
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
+      <c r="AS12" s="80"/>
+      <c r="AT12" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="51" t="s">
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="53" t="s">
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="55"/>
-    </row>
-    <row r="13" spans="1:52" ht="24.75" customHeight="1">
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="100"/>
+    </row>
+    <row r="13" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3440,70 +3440,70 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="73" t="s">
+      <c r="O13" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="51" t="s">
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="56"/>
-      <c r="U13" s="73" t="s">
+      <c r="T13" s="92"/>
+      <c r="U13" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="73" t="s">
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="51" t="s">
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="51" t="s">
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="51" t="s">
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="51" t="s">
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="48" t="s">
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="51" t="s">
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
+      <c r="AS13" s="80"/>
+      <c r="AT13" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="51" t="s">
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="53" t="s">
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="55"/>
-    </row>
-    <row r="14" spans="1:52">
+      <c r="AY13" s="99"/>
+      <c r="AZ13" s="100"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3521,46 +3521,46 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="55"/>
-    </row>
-    <row r="15" spans="1:52">
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="100"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3578,46 +3578,46 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="55"/>
-    </row>
-    <row r="16" spans="1:52">
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="80"/>
+      <c r="AT15" s="81"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="81"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="99"/>
+      <c r="AZ15" s="100"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3635,46 +3635,46 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="55"/>
-    </row>
-    <row r="17" spans="1:52">
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="100"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3692,46 +3692,46 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="55"/>
-    </row>
-    <row r="18" spans="1:52">
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
+      <c r="AS17" s="80"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="82"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="100"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3749,46 +3749,46 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="55"/>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="80"/>
+      <c r="AT18" s="81"/>
+      <c r="AU18" s="82"/>
+      <c r="AV18" s="81"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="100"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3806,46 +3806,46 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="55"/>
-    </row>
-    <row r="20" spans="1:52">
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
+      <c r="AS19" s="80"/>
+      <c r="AT19" s="81"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="81"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="100"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3863,46 +3863,46 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="55"/>
-    </row>
-    <row r="21" spans="1:52">
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="81"/>
+      <c r="AU20" s="82"/>
+      <c r="AV20" s="81"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="100"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3920,46 +3920,46 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="55"/>
-    </row>
-    <row r="22" spans="1:52">
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="80"/>
+      <c r="AT21" s="81"/>
+      <c r="AU21" s="82"/>
+      <c r="AV21" s="81"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="99"/>
+      <c r="AZ21" s="100"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3977,46 +3977,46 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="49"/>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="55"/>
-    </row>
-    <row r="23" spans="1:52">
+      <c r="O22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="80"/>
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="100"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4034,46 +4034,46 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="52"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
-    </row>
-    <row r="24" spans="1:52">
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="81"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="81"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="99"/>
+      <c r="AZ23" s="100"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4091,46 +4091,46 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="55"/>
-    </row>
-    <row r="25" spans="1:52">
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="97"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="79"/>
+      <c r="AR24" s="79"/>
+      <c r="AS24" s="80"/>
+      <c r="AT24" s="81"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="81"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="99"/>
+      <c r="AZ24" s="100"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4148,46 +4148,46 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="55"/>
-    </row>
-    <row r="26" spans="1:52">
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="79"/>
+      <c r="AQ25" s="79"/>
+      <c r="AR25" s="79"/>
+      <c r="AS25" s="80"/>
+      <c r="AT25" s="81"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="81"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="99"/>
+      <c r="AZ25" s="100"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4205,46 +4205,46 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="50"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="55"/>
-    </row>
-    <row r="27" spans="1:52">
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="99"/>
+      <c r="AZ26" s="100"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4262,46 +4262,46 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="50"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="55"/>
-    </row>
-    <row r="28" spans="1:52">
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="80"/>
+      <c r="AT27" s="81"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="81"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="99"/>
+      <c r="AZ27" s="100"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4319,46 +4319,46 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="55"/>
-    </row>
-    <row r="29" spans="1:52">
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="81"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="81"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="99"/>
+      <c r="AZ28" s="100"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4376,46 +4376,46 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="55"/>
-    </row>
-    <row r="30" spans="1:52">
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="92"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="80"/>
+      <c r="AT29" s="81"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="81"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="99"/>
+      <c r="AZ29" s="100"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4433,46 +4433,46 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="55"/>
-    </row>
-    <row r="31" spans="1:52">
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="80"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="82"/>
+      <c r="AV30" s="81"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="99"/>
+      <c r="AZ30" s="100"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4490,46 +4490,46 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="55"/>
-    </row>
-    <row r="32" spans="1:52">
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
+      <c r="AS31" s="80"/>
+      <c r="AT31" s="81"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="81"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="99"/>
+      <c r="AZ31" s="100"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4547,46 +4547,46 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="74"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="50"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="55"/>
-    </row>
-    <row r="33" spans="1:52">
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="79"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="80"/>
+      <c r="AT32" s="81"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="81"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="99"/>
+      <c r="AZ32" s="100"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4604,46 +4604,46 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="50"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="55"/>
-    </row>
-    <row r="34" spans="1:52">
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="82"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="92"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="79"/>
+      <c r="AO33" s="79"/>
+      <c r="AP33" s="79"/>
+      <c r="AQ33" s="79"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="80"/>
+      <c r="AT33" s="81"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="81"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="99"/>
+      <c r="AZ33" s="100"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4661,46 +4661,46 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="50"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="55"/>
-    </row>
-    <row r="35" spans="1:52">
+      <c r="O34" s="93"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="92"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="92"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="79"/>
+      <c r="AQ34" s="79"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="80"/>
+      <c r="AT34" s="81"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="81"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="98"/>
+      <c r="AY34" s="99"/>
+      <c r="AZ34" s="100"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4718,46 +4718,46 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="50"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="52"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="55"/>
-    </row>
-    <row r="36" spans="1:52">
+      <c r="O35" s="93"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="81"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="92"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="79"/>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="79"/>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="79"/>
+      <c r="AS35" s="80"/>
+      <c r="AT35" s="81"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="81"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="98"/>
+      <c r="AY35" s="99"/>
+      <c r="AZ35" s="100"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4775,164 +4775,265 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="61"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="63"/>
-      <c r="AT36" s="59"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="59"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="67"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="102"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="104"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="104"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="109"/>
+      <c r="AN36" s="110"/>
+      <c r="AO36" s="110"/>
+      <c r="AP36" s="110"/>
+      <c r="AQ36" s="110"/>
+      <c r="AR36" s="110"/>
+      <c r="AS36" s="111"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="106"/>
+      <c r="AV36" s="104"/>
+      <c r="AW36" s="106"/>
+      <c r="AX36" s="112"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
     <mergeCell ref="AT19:AU19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="S20:T20"/>
@@ -4957,224 +5058,123 @@
     <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AI18:AJ18"/>
     <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5191,210 +5191,210 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AQ3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="88" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="96" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="113"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="92" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="88" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="92" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="96" t="s">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="91" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="99">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="51">
         <v>41536</v>
       </c>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="91" t="s">
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="95" t="s">
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="91" t="s">
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="91" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="91" t="s">
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="95" t="s">
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95"/>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -5402,26 +5402,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="35" t="s">
         <v>45</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="AY8" s="2"/>
       <c r="AZ8" s="3"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5525,7 +5525,7 @@
       <c r="AY9" s="5"/>
       <c r="AZ9" s="6"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5581,7 +5581,7 @@
       <c r="AY10" s="5"/>
       <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5637,7 +5637,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5693,7 +5693,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5747,7 +5747,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5803,7 +5803,7 @@
       <c r="AY14" s="5"/>
       <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5859,7 +5859,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="6"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5915,7 +5915,7 @@
       <c r="AY16" s="5"/>
       <c r="AZ16" s="6"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5969,7 +5969,7 @@
       <c r="AY17" s="5"/>
       <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6023,7 +6023,7 @@
       <c r="AY18" s="5"/>
       <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6077,7 +6077,7 @@
       <c r="AY19" s="5"/>
       <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6131,7 +6131,7 @@
       <c r="AY20" s="5"/>
       <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6185,7 +6185,7 @@
       <c r="AY21" s="5"/>
       <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -6239,7 +6239,7 @@
       <c r="AY22" s="5"/>
       <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6293,7 +6293,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6347,7 +6347,7 @@
       <c r="AY24" s="5"/>
       <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -6401,7 +6401,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -6455,7 +6455,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -6509,7 +6509,7 @@
       <c r="AY27" s="5"/>
       <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -6563,7 +6563,7 @@
       <c r="AY28" s="5"/>
       <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -6617,7 +6617,7 @@
       <c r="AY29" s="5"/>
       <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -6671,7 +6671,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6725,7 +6725,7 @@
       <c r="AY31" s="5"/>
       <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6779,7 +6779,7 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="6"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6833,7 +6833,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="6"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6887,7 +6887,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -6941,7 +6941,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -6995,7 +6995,7 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7049,7 +7049,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -7105,6 +7105,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
@@ -7121,13 +7128,6 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7144,210 +7144,210 @@
   <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AQ3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="91" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="88" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="96" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="113"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="92" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="88" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="92" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="96" t="s">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="91" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="99">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="51">
         <v>41536</v>
       </c>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="91" t="s">
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="95" t="s">
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="91" t="s">
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="91" t="s">
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="91" t="s">
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="95" t="s">
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95"/>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -7355,12 +7355,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -7422,89 +7422,89 @@
       <c r="AY8" s="22"/>
       <c r="AZ8" s="23"/>
     </row>
-    <row r="9" spans="1:52" ht="24.95" customHeight="1">
+    <row r="9" spans="1:52" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="82" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="82" t="s">
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="82" t="s">
+      <c r="T9" s="74"/>
+      <c r="U9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="82" t="s">
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="82" t="s">
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="82" t="s">
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="82" t="s">
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="82" t="s">
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="82" t="s">
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="82" t="s">
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="82" t="s">
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="45" t="s">
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="47"/>
-    </row>
-    <row r="10" spans="1:52">
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="71"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="32">
         <f t="shared" ref="A10:A36" si="0">ROW()-9</f>
         <v>1</v>
@@ -7524,64 +7524,64 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="121" t="s">
+      <c r="O10" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="76" t="s">
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="81"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="125"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="76" t="s">
+      <c r="T10" s="88"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="76" t="s">
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="76" t="s">
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="76" t="s">
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="AL10" s="81"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="129"/>
-      <c r="AT10" s="76" t="s">
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="144"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="145"/>
+      <c r="AQ10" s="145"/>
+      <c r="AR10" s="145"/>
+      <c r="AS10" s="146"/>
+      <c r="AT10" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="AU10" s="81"/>
-      <c r="AV10" s="76" t="s">
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="AW10" s="81"/>
-      <c r="AX10" s="133" t="s">
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="AY10" s="134"/>
-      <c r="AZ10" s="135"/>
-    </row>
-    <row r="11" spans="1:52">
+      <c r="AY10" s="131"/>
+      <c r="AZ10" s="132"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7601,64 +7601,64 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="118" t="s">
+      <c r="O11" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="51" t="s">
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="56"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="51" t="s">
+      <c r="T11" s="92"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="51" t="s">
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="51" t="s">
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="51" t="s">
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="51" t="s">
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="123"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="123"/>
+      <c r="AR11" s="123"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AU11" s="56"/>
-      <c r="AV11" s="51" t="s">
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="53" t="s">
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="55"/>
-    </row>
-    <row r="12" spans="1:52">
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="100"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7678,141 +7678,141 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="118" t="s">
+      <c r="O12" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="51" t="s">
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="56"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="51" t="s">
+      <c r="T12" s="92"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="51" t="s">
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="51" t="s">
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="119"/>
-      <c r="AO12" s="119"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="51" t="s">
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="123"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="51" t="s">
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="53" t="s">
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="55"/>
-    </row>
-    <row r="13" spans="1:52">
-      <c r="A13" s="136">
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="100"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="143" t="s">
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="144"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="143" t="s">
+      <c r="T13" s="134"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="143" t="s">
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="143" t="s">
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="143" t="s">
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="AL13" s="144"/>
-      <c r="AM13" s="140"/>
-      <c r="AN13" s="141"/>
-      <c r="AO13" s="141"/>
-      <c r="AP13" s="141"/>
-      <c r="AQ13" s="141"/>
-      <c r="AR13" s="141"/>
-      <c r="AS13" s="142"/>
-      <c r="AT13" s="143" t="s">
+      <c r="AL13" s="134"/>
+      <c r="AM13" s="138"/>
+      <c r="AN13" s="139"/>
+      <c r="AO13" s="139"/>
+      <c r="AP13" s="139"/>
+      <c r="AQ13" s="139"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="140"/>
+      <c r="AT13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="143" t="s">
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="AW13" s="144"/>
-      <c r="AX13" s="148" t="s">
+      <c r="AW13" s="134"/>
+      <c r="AX13" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="AY13" s="149"/>
-      <c r="AZ13" s="150"/>
-    </row>
-    <row r="14" spans="1:52">
+      <c r="AY13" s="128"/>
+      <c r="AZ13" s="129"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7832,64 +7832,64 @@
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
       <c r="N14" s="40"/>
-      <c r="O14" s="118" t="s">
+      <c r="O14" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="51" t="s">
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T14" s="56"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="51" t="s">
+      <c r="T14" s="92"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="51" t="s">
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="51" t="s">
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="51" t="s">
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="151"/>
-      <c r="AO14" s="151"/>
-      <c r="AP14" s="151"/>
-      <c r="AQ14" s="151"/>
-      <c r="AR14" s="151"/>
-      <c r="AS14" s="152"/>
-      <c r="AT14" s="51" t="s">
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="125"/>
+      <c r="AP14" s="125"/>
+      <c r="AQ14" s="125"/>
+      <c r="AR14" s="125"/>
+      <c r="AS14" s="126"/>
+      <c r="AT14" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU14" s="56"/>
-      <c r="AV14" s="51" t="s">
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW14" s="56"/>
-      <c r="AX14" s="53" t="s">
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="55"/>
-    </row>
-    <row r="15" spans="1:52">
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="100"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7909,64 +7909,64 @@
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="118" t="s">
+      <c r="O15" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="51" t="s">
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="51" t="s">
+      <c r="T15" s="92"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="51" t="s">
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="51" t="s">
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="51" t="s">
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="51" t="s">
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="124"/>
+      <c r="AT15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="51" t="s">
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="53" t="s">
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="55"/>
-    </row>
-    <row r="16" spans="1:52">
+      <c r="AY15" s="99"/>
+      <c r="AZ15" s="100"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7986,64 +7986,64 @@
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
       <c r="N16" s="40"/>
-      <c r="O16" s="118" t="s">
+      <c r="O16" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="51" t="s">
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="56"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="51" t="s">
+      <c r="T16" s="92"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="51" t="s">
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="51" t="s">
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="51" t="s">
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="119"/>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="51" t="s">
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="123"/>
+      <c r="AO16" s="123"/>
+      <c r="AP16" s="123"/>
+      <c r="AQ16" s="123"/>
+      <c r="AR16" s="123"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="51" t="s">
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="53" t="s">
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="55"/>
-    </row>
-    <row r="17" spans="1:52">
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="100"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8063,64 +8063,64 @@
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="118" t="s">
+      <c r="O17" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="51" t="s">
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="51" t="s">
+      <c r="T17" s="92"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="51" t="s">
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="51" t="s">
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="51" t="s">
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="119"/>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="120"/>
-      <c r="AT17" s="51" t="s">
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="123"/>
+      <c r="AP17" s="123"/>
+      <c r="AQ17" s="123"/>
+      <c r="AR17" s="123"/>
+      <c r="AS17" s="124"/>
+      <c r="AT17" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="51" t="s">
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="53" t="s">
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="55"/>
-    </row>
-    <row r="18" spans="1:52">
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="100"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8140,66 +8140,66 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="118" t="s">
+      <c r="O18" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="51" t="s">
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="56"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="51" t="s">
+      <c r="T18" s="92"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="51" t="s">
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="51" t="s">
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="51" t="s">
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="118" t="s">
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="AN18" s="119"/>
-      <c r="AO18" s="119"/>
-      <c r="AP18" s="119"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="120"/>
-      <c r="AT18" s="51" t="s">
+      <c r="AN18" s="123"/>
+      <c r="AO18" s="123"/>
+      <c r="AP18" s="123"/>
+      <c r="AQ18" s="123"/>
+      <c r="AR18" s="123"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="51" t="s">
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="53" t="s">
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="55"/>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="100"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8219,72 +8219,72 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="118" t="s">
+      <c r="O19" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="51" t="s">
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="56"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="51" t="s">
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="51" t="s">
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="51" t="s">
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="51" t="s">
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="118" t="s">
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="119"/>
-      <c r="AP19" s="119"/>
-      <c r="AQ19" s="119"/>
-      <c r="AR19" s="119"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="51" t="s">
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="123"/>
+      <c r="AP19" s="123"/>
+      <c r="AQ19" s="123"/>
+      <c r="AR19" s="123"/>
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="51" t="s">
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="53" t="s">
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="55"/>
-    </row>
-    <row r="20" spans="1:52">
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="100"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -8298,72 +8298,72 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="118" t="s">
+      <c r="O20" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="51" t="s">
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T20" s="56"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="51" t="s">
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="51" t="s">
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="51" t="s">
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="51" t="s">
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="118" t="s">
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="119"/>
-      <c r="AP20" s="119"/>
-      <c r="AQ20" s="119"/>
-      <c r="AR20" s="119"/>
-      <c r="AS20" s="120"/>
-      <c r="AT20" s="51" t="s">
+      <c r="AN20" s="123"/>
+      <c r="AO20" s="123"/>
+      <c r="AP20" s="123"/>
+      <c r="AQ20" s="123"/>
+      <c r="AR20" s="123"/>
+      <c r="AS20" s="124"/>
+      <c r="AT20" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="51" t="s">
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="55"/>
-    </row>
-    <row r="21" spans="1:52">
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="100"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -8377,72 +8377,72 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="118" t="s">
+      <c r="O21" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="51" t="s">
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T21" s="56"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="51" t="s">
+      <c r="T21" s="92"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="51" t="s">
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="51" t="s">
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="51" t="s">
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="118" t="s">
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="119"/>
-      <c r="AP21" s="119"/>
-      <c r="AQ21" s="119"/>
-      <c r="AR21" s="119"/>
-      <c r="AS21" s="120"/>
-      <c r="AT21" s="51" t="s">
+      <c r="AN21" s="123"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="123"/>
+      <c r="AQ21" s="123"/>
+      <c r="AR21" s="123"/>
+      <c r="AS21" s="124"/>
+      <c r="AT21" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU21" s="56"/>
-      <c r="AV21" s="51" t="s">
+      <c r="AU21" s="92"/>
+      <c r="AV21" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW21" s="56"/>
-      <c r="AX21" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="55"/>
-    </row>
-    <row r="22" spans="1:52">
+      <c r="AW21" s="92"/>
+      <c r="AX21" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY21" s="99"/>
+      <c r="AZ21" s="100"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -8456,70 +8456,70 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="118" t="s">
+      <c r="O22" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="51" t="s">
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T22" s="56"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="51" t="s">
+      <c r="T22" s="92"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="51" t="s">
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="51" t="s">
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="51" t="s">
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="119"/>
-      <c r="AO22" s="119"/>
-      <c r="AP22" s="119"/>
-      <c r="AQ22" s="119"/>
-      <c r="AR22" s="119"/>
-      <c r="AS22" s="120"/>
-      <c r="AT22" s="51" t="s">
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="122"/>
+      <c r="AN22" s="123"/>
+      <c r="AO22" s="123"/>
+      <c r="AP22" s="123"/>
+      <c r="AQ22" s="123"/>
+      <c r="AR22" s="123"/>
+      <c r="AS22" s="124"/>
+      <c r="AT22" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU22" s="56"/>
-      <c r="AV22" s="51" t="s">
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW22" s="56"/>
-      <c r="AX22" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="55"/>
-    </row>
-    <row r="23" spans="1:52">
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="100"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8533,70 +8533,70 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="118" t="s">
+      <c r="O23" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="51" t="s">
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T23" s="56"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="51" t="s">
+      <c r="T23" s="92"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="51" t="s">
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="51" t="s">
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="51" t="s">
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="119"/>
-      <c r="AO23" s="119"/>
-      <c r="AP23" s="119"/>
-      <c r="AQ23" s="119"/>
-      <c r="AR23" s="119"/>
-      <c r="AS23" s="120"/>
-      <c r="AT23" s="51" t="s">
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="122"/>
+      <c r="AN23" s="123"/>
+      <c r="AO23" s="123"/>
+      <c r="AP23" s="123"/>
+      <c r="AQ23" s="123"/>
+      <c r="AR23" s="123"/>
+      <c r="AS23" s="124"/>
+      <c r="AT23" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="51" t="s">
+      <c r="AU23" s="92"/>
+      <c r="AV23" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="55"/>
-    </row>
-    <row r="24" spans="1:52">
+      <c r="AW23" s="92"/>
+      <c r="AX23" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY23" s="99"/>
+      <c r="AZ23" s="100"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -8610,70 +8610,70 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="118" t="s">
+      <c r="O24" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="51" t="s">
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T24" s="56"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="51" t="s">
+      <c r="T24" s="92"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="51" t="s">
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="51" t="s">
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="51" t="s">
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="118"/>
-      <c r="AN24" s="119"/>
-      <c r="AO24" s="119"/>
-      <c r="AP24" s="119"/>
-      <c r="AQ24" s="119"/>
-      <c r="AR24" s="119"/>
-      <c r="AS24" s="120"/>
-      <c r="AT24" s="51" t="s">
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="123"/>
+      <c r="AO24" s="123"/>
+      <c r="AP24" s="123"/>
+      <c r="AQ24" s="123"/>
+      <c r="AR24" s="123"/>
+      <c r="AS24" s="124"/>
+      <c r="AT24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU24" s="56"/>
-      <c r="AV24" s="51" t="s">
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW24" s="56"/>
-      <c r="AX24" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="55"/>
-    </row>
-    <row r="25" spans="1:52">
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY24" s="99"/>
+      <c r="AZ24" s="100"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -8687,64 +8687,64 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="118" t="s">
+      <c r="O25" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="51" t="s">
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T25" s="56"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="51" t="s">
+      <c r="T25" s="92"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="51" t="s">
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="51" t="s">
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="51" t="s">
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="119"/>
-      <c r="AO25" s="119"/>
-      <c r="AP25" s="119"/>
-      <c r="AQ25" s="119"/>
-      <c r="AR25" s="119"/>
-      <c r="AS25" s="120"/>
-      <c r="AT25" s="51" t="s">
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="122"/>
+      <c r="AN25" s="123"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="123"/>
+      <c r="AQ25" s="123"/>
+      <c r="AR25" s="123"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="51" t="s">
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="55"/>
-    </row>
-    <row r="26" spans="1:52">
+      <c r="AW25" s="92"/>
+      <c r="AX25" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY25" s="99"/>
+      <c r="AZ25" s="100"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8762,46 +8762,46 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="119"/>
-      <c r="AO26" s="119"/>
-      <c r="AP26" s="119"/>
-      <c r="AQ26" s="119"/>
-      <c r="AR26" s="119"/>
-      <c r="AS26" s="120"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="55"/>
-    </row>
-    <row r="27" spans="1:52">
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="122"/>
+      <c r="AN26" s="123"/>
+      <c r="AO26" s="123"/>
+      <c r="AP26" s="123"/>
+      <c r="AQ26" s="123"/>
+      <c r="AR26" s="123"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="99"/>
+      <c r="AZ26" s="100"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8819,46 +8819,46 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="120"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="55"/>
-    </row>
-    <row r="28" spans="1:52">
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="122"/>
+      <c r="AN27" s="123"/>
+      <c r="AO27" s="123"/>
+      <c r="AP27" s="123"/>
+      <c r="AQ27" s="123"/>
+      <c r="AR27" s="123"/>
+      <c r="AS27" s="124"/>
+      <c r="AT27" s="81"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="81"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="99"/>
+      <c r="AZ27" s="100"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8876,46 +8876,46 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="119"/>
-      <c r="AO28" s="119"/>
-      <c r="AP28" s="119"/>
-      <c r="AQ28" s="119"/>
-      <c r="AR28" s="119"/>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="55"/>
-    </row>
-    <row r="29" spans="1:52">
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="123"/>
+      <c r="AO28" s="123"/>
+      <c r="AP28" s="123"/>
+      <c r="AQ28" s="123"/>
+      <c r="AR28" s="123"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="81"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="81"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="99"/>
+      <c r="AZ28" s="100"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8933,46 +8933,46 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="119"/>
-      <c r="AO29" s="119"/>
-      <c r="AP29" s="119"/>
-      <c r="AQ29" s="119"/>
-      <c r="AR29" s="119"/>
-      <c r="AS29" s="120"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="55"/>
-    </row>
-    <row r="30" spans="1:52">
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="92"/>
+      <c r="AM29" s="122"/>
+      <c r="AN29" s="123"/>
+      <c r="AO29" s="123"/>
+      <c r="AP29" s="123"/>
+      <c r="AQ29" s="123"/>
+      <c r="AR29" s="123"/>
+      <c r="AS29" s="124"/>
+      <c r="AT29" s="81"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="81"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="99"/>
+      <c r="AZ29" s="100"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8990,46 +8990,46 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="75"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="119"/>
-      <c r="AO30" s="119"/>
-      <c r="AP30" s="119"/>
-      <c r="AQ30" s="119"/>
-      <c r="AR30" s="119"/>
-      <c r="AS30" s="120"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="55"/>
-    </row>
-    <row r="31" spans="1:52">
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="122"/>
+      <c r="AN30" s="123"/>
+      <c r="AO30" s="123"/>
+      <c r="AP30" s="123"/>
+      <c r="AQ30" s="123"/>
+      <c r="AR30" s="123"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="82"/>
+      <c r="AV30" s="81"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="99"/>
+      <c r="AZ30" s="100"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9047,46 +9047,46 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="119"/>
-      <c r="AO31" s="119"/>
-      <c r="AP31" s="119"/>
-      <c r="AQ31" s="119"/>
-      <c r="AR31" s="119"/>
-      <c r="AS31" s="120"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="55"/>
-    </row>
-    <row r="32" spans="1:52">
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="123"/>
+      <c r="AO31" s="123"/>
+      <c r="AP31" s="123"/>
+      <c r="AQ31" s="123"/>
+      <c r="AR31" s="123"/>
+      <c r="AS31" s="124"/>
+      <c r="AT31" s="81"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="81"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="99"/>
+      <c r="AZ31" s="100"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9104,46 +9104,46 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="74"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="119"/>
-      <c r="AO32" s="119"/>
-      <c r="AP32" s="119"/>
-      <c r="AQ32" s="119"/>
-      <c r="AR32" s="119"/>
-      <c r="AS32" s="120"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="55"/>
-    </row>
-    <row r="33" spans="1:52">
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="122"/>
+      <c r="AN32" s="123"/>
+      <c r="AO32" s="123"/>
+      <c r="AP32" s="123"/>
+      <c r="AQ32" s="123"/>
+      <c r="AR32" s="123"/>
+      <c r="AS32" s="124"/>
+      <c r="AT32" s="81"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="81"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="99"/>
+      <c r="AZ32" s="100"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9161,46 +9161,46 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="120"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="55"/>
-    </row>
-    <row r="34" spans="1:52">
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="82"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="92"/>
+      <c r="AM33" s="122"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="124"/>
+      <c r="AT33" s="81"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="81"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="99"/>
+      <c r="AZ33" s="100"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9218,46 +9218,46 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="119"/>
-      <c r="AO34" s="119"/>
-      <c r="AP34" s="119"/>
-      <c r="AQ34" s="119"/>
-      <c r="AR34" s="119"/>
-      <c r="AS34" s="120"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="55"/>
-    </row>
-    <row r="35" spans="1:52">
+      <c r="O34" s="93"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="92"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="92"/>
+      <c r="AM34" s="122"/>
+      <c r="AN34" s="123"/>
+      <c r="AO34" s="123"/>
+      <c r="AP34" s="123"/>
+      <c r="AQ34" s="123"/>
+      <c r="AR34" s="123"/>
+      <c r="AS34" s="124"/>
+      <c r="AT34" s="81"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="81"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="98"/>
+      <c r="AY34" s="99"/>
+      <c r="AZ34" s="100"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9275,46 +9275,46 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="118"/>
-      <c r="AN35" s="119"/>
-      <c r="AO35" s="119"/>
-      <c r="AP35" s="119"/>
-      <c r="AQ35" s="119"/>
-      <c r="AR35" s="119"/>
-      <c r="AS35" s="120"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="52"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="55"/>
-    </row>
-    <row r="36" spans="1:52">
+      <c r="O35" s="93"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="81"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="92"/>
+      <c r="AM35" s="122"/>
+      <c r="AN35" s="123"/>
+      <c r="AO35" s="123"/>
+      <c r="AP35" s="123"/>
+      <c r="AQ35" s="123"/>
+      <c r="AR35" s="123"/>
+      <c r="AS35" s="124"/>
+      <c r="AT35" s="81"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="81"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="98"/>
+      <c r="AY35" s="99"/>
+      <c r="AZ35" s="100"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9332,47 +9332,382 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="130"/>
-      <c r="AN36" s="131"/>
-      <c r="AO36" s="131"/>
-      <c r="AP36" s="131"/>
-      <c r="AQ36" s="131"/>
-      <c r="AR36" s="131"/>
-      <c r="AS36" s="132"/>
-      <c r="AT36" s="59"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="59"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="67"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="102"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="104"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="104"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="135"/>
+      <c r="AN36" s="136"/>
+      <c r="AO36" s="136"/>
+      <c r="AP36" s="136"/>
+      <c r="AQ36" s="136"/>
+      <c r="AR36" s="136"/>
+      <c r="AS36" s="137"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="106"/>
+      <c r="AV36" s="104"/>
+      <c r="AW36" s="106"/>
+      <c r="AX36" s="112"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="359">
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
     <mergeCell ref="AT16:AU16"/>
     <mergeCell ref="AV16:AW16"/>
     <mergeCell ref="AX16:AZ16"/>
@@ -9397,341 +9732,6 @@
     <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="AK16:AL16"/>
     <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
